--- a/test/testinput/Test6B.xlsx
+++ b/test/testinput/Test6B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ghx365-my.sharepoint.com/personal/ncroiset_ghx_com/Documents/GHX ValidatieRapporten/Testmap/Test map sept 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ncroiset/Vibe Coding Projecten/Cursor Projecten/Project GHX Prijstemplate Validatie Tool/test/testinput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{EA93CDBE-B2FD-CB47-9D82-77EBF8D6783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16884B81-9CF2-7240-A4C9-CE29EA9B35AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13776EDA-CB82-6342-BB01-C592C50F06A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="500" windowWidth="38400" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template_FLEX0_UMCU0" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="366">
   <si>
     <t/>
   </si>
@@ -6898,12 +6898,60 @@
   <si>
     <t>esp</t>
   </si>
+  <si>
+    <t>https://nielscroiset.nl/</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>https://niecroiset.nl/</t>
+  </si>
+  <si>
+    <t>http://nielscroiset.nl</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.85c</t>
+  </si>
+  <si>
+    <t>€32.48</t>
+  </si>
+  <si>
+    <t>50l</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>http://nies/nl</t>
+  </si>
+  <si>
+    <t>18032568030273 18032578030273 18032561030273</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>123456789012345</t>
+  </si>
+  <si>
+    <t>18032568030273/18032578030273/18032561030273</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -7063,6 +7111,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -7268,13 +7330,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7445,9 +7508,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{4BF70472-2696-45F3-A71F-2F67EF4DA518}"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal_Book1" xfId="2" xr:uid="{9C55E037-E615-4A59-A2CB-C63A1BD7DAC5}"/>
     <cellStyle name="Normal_Product_old (2)" xfId="1" xr:uid="{4E4B0F9D-E130-4FE2-AE79-B607CBFA7722}"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -7784,13 +7851,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="103" width="30.83203125" customWidth="1"/>
+    <col min="1" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="103" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:103" s="41" customFormat="1" ht="96" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8428,7 +8498,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>308</v>
@@ -8442,9 +8512,7 @@
       <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8473,7 +8541,7 @@
         <v>325</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>325</v>
@@ -8736,9 +8804,7 @@
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>308</v>
       </c>
@@ -8754,9 +8820,7 @@
       <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>326</v>
       </c>
@@ -8779,10 +8843,10 @@
         <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>0</v>
@@ -8791,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>0</v>
@@ -8907,8 +8971,8 @@
       <c r="BJ4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BK4" s="1" t="s">
-        <v>0</v>
+      <c r="BK4" s="58" t="s">
+        <v>355</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>0</v>
@@ -9046,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>308</v>
@@ -9058,17 +9122,15 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="54" t="s">
-        <v>30</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M5" s="54"/>
       <c r="N5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9088,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>0</v>
@@ -9129,15 +9191,9 @@
       <c r="AG5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
       <c r="AK5" s="1" t="s">
         <v>0</v>
       </c>
@@ -9216,8 +9272,8 @@
       <c r="BJ5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BK5" s="1" t="s">
-        <v>0</v>
+      <c r="BK5" s="58" t="s">
+        <v>354</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>0</v>
@@ -9378,9 +9434,7 @@
       <c r="M6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9397,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>0</v>
@@ -9438,14 +9492,12 @@
       <c r="AG6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>0</v>
+      <c r="AH6" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="60" t="s">
+        <v>354</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>0</v>
@@ -9505,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE6" s="1" t="s">
         <v>0</v>
@@ -9525,8 +9577,8 @@
       <c r="BJ6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BK6" s="1" t="s">
-        <v>0</v>
+      <c r="BK6" s="58" t="s">
+        <v>354</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>0</v>
@@ -9690,9 +9742,7 @@
       <c r="N7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
         <v>0</v>
       </c>
@@ -9747,14 +9797,14 @@
       <c r="AG7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>0</v>
+      <c r="AH7" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI7" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ7" s="60" t="s">
+        <v>354</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>0</v>
@@ -9812,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE7" s="1" t="s">
         <v>0</v>
@@ -9832,8 +9882,8 @@
       <c r="BJ7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BK7" s="1" t="s">
-        <v>0</v>
+      <c r="BK7" s="58" t="s">
+        <v>354</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>0</v>
@@ -9973,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>309</v>
@@ -10056,14 +10106,14 @@
       <c r="AG8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>0</v>
+      <c r="AH8" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI8" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ8" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>0</v>
@@ -10121,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE8" s="1" t="s">
         <v>0</v>
@@ -10141,8 +10191,8 @@
       <c r="BJ8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BK8" s="1" t="s">
-        <v>0</v>
+      <c r="BK8" s="58" t="s">
+        <v>354</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>0</v>
@@ -10297,7 +10347,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>37</v>
@@ -10365,14 +10415,14 @@
       <c r="AG9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>0</v>
+      <c r="AH9" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI9" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ9" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>0</v>
@@ -10428,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE9" s="1" t="s">
         <v>0</v>
@@ -10448,8 +10498,8 @@
       <c r="BJ9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BK9" s="1" t="s">
-        <v>0</v>
+      <c r="BK9" s="58" t="s">
+        <v>354</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>0</v>
@@ -10672,14 +10722,14 @@
       <c r="AG10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>0</v>
+      <c r="AH10" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI10" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ10" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>0</v>
@@ -10735,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="BE10" s="1" t="s">
         <v>0</v>
@@ -10756,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="BK10" s="1" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="BL10" s="1" t="s">
         <v>0</v>
@@ -10979,14 +11029,14 @@
       <c r="AG11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>0</v>
+      <c r="AH11" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI11" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ11" s="60" t="s">
+        <v>361</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>0</v>
@@ -11042,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="BE11" s="1" t="s">
         <v>0</v>
@@ -11063,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="1" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>0</v>
@@ -11284,15 +11334,13 @@
       <c r="AG12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH12" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI12" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ12" s="59"/>
       <c r="AK12" s="1" t="s">
         <v>0</v>
       </c>
@@ -11347,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="BE12" s="1" t="s">
         <v>0</v>
@@ -11368,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="1" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="BL12" s="1" t="s">
         <v>0</v>
@@ -11591,15 +11639,11 @@
       <c r="AG13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH13" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
       <c r="AK13" s="1" t="s">
         <v>0</v>
       </c>
@@ -11675,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="1" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="BL13" s="1" t="s">
         <v>0</v>
@@ -11836,7 +11880,7 @@
         <v>5</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>4</v>
@@ -11898,14 +11942,12 @@
       <c r="AG14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>0</v>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ14" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>0</v>
@@ -11982,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="1" t="s">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="BL14" s="1" t="s">
         <v>0</v>
@@ -12205,14 +12247,12 @@
       <c r="AG15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>0</v>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ15" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>0</v>
@@ -12512,15 +12552,9 @@
       <c r="AG16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
       <c r="AK16" s="1" t="s">
         <v>0</v>
       </c>
@@ -12819,15 +12853,9 @@
       <c r="AG17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
       <c r="AK17" s="1" t="s">
         <v>0</v>
       </c>
@@ -13126,15 +13154,9 @@
       <c r="AG18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
       <c r="AK18" s="1" t="s">
         <v>0</v>
       </c>
@@ -13431,15 +13453,9 @@
       <c r="AG19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
       <c r="AK19" s="1" t="s">
         <v>0</v>
       </c>
@@ -15818,6 +15834,38 @@
       <formula1>"EU_CLASS_I,EU_CLASS_IIA,EU_CLASS_IIB,EU_CLASS_III,EU_CLASS_A,EU_CLASS_B,EU_CLASS_C,EU_CLASS_D,IVDD_ANNEX_II_LIST_A,IVDD_ANNEX_II_LIST_B,IVDD_DEVICES_SELF_TESTING,IVDD_GENERAL"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="BK4" r:id="rId1" xr:uid="{274B5CA1-A3FF-9244-A0C8-171B463D78A0}"/>
+    <hyperlink ref="BK5" r:id="rId2" xr:uid="{FEBDD577-00D1-AA4C-85D2-14311AD06905}"/>
+    <hyperlink ref="BK6" r:id="rId3" xr:uid="{50C13372-039A-1C43-B6AF-1FB9F79D34C6}"/>
+    <hyperlink ref="BK7" r:id="rId4" xr:uid="{2E83C5CD-FF3B-B246-BBF0-8685DC7D2EC7}"/>
+    <hyperlink ref="BK8" r:id="rId5" xr:uid="{A341126C-2C61-1A4F-8D6A-7002BA8303FC}"/>
+    <hyperlink ref="BK9" r:id="rId6" xr:uid="{48A15D1F-F5EB-734B-A779-8285A1F0410C}"/>
+    <hyperlink ref="AH6" r:id="rId7" xr:uid="{046FF686-48D2-7F48-9594-FDD891B040AF}"/>
+    <hyperlink ref="AJ6" r:id="rId8" xr:uid="{7D46E97C-958A-834D-84B6-5BE03A04D5DB}"/>
+    <hyperlink ref="AH7" r:id="rId9" xr:uid="{92E4A447-E872-7D47-93E0-7CC01B0D9846}"/>
+    <hyperlink ref="AI7" r:id="rId10" xr:uid="{F9A8650F-E4A4-1344-BBE9-4FAB9B910C44}"/>
+    <hyperlink ref="AJ7" r:id="rId11" xr:uid="{66144E6A-2882-1B4F-9A03-D707E0664791}"/>
+    <hyperlink ref="AH8" r:id="rId12" xr:uid="{6367A434-D809-9E47-9472-3D41376BC422}"/>
+    <hyperlink ref="AI8" r:id="rId13" xr:uid="{66D9907F-BD0F-D642-B2E8-C0A592DD0229}"/>
+    <hyperlink ref="AJ8" r:id="rId14" xr:uid="{A687D93F-8B2B-8E48-840B-9711F8BED077}"/>
+    <hyperlink ref="AH9" r:id="rId15" xr:uid="{36C94B0B-9A96-CF4F-92EE-CD37F9E1073A}"/>
+    <hyperlink ref="AI9" r:id="rId16" xr:uid="{4D70D33F-2B02-C446-8D78-2F63F9F046FC}"/>
+    <hyperlink ref="AJ9" r:id="rId17" xr:uid="{E4FE019B-39F5-CB40-A086-4A2BCAEEB1A4}"/>
+    <hyperlink ref="AH10" r:id="rId18" xr:uid="{018FF40B-C142-1449-AB83-671F181B49DC}"/>
+    <hyperlink ref="AI10" r:id="rId19" xr:uid="{B4CF6DAC-F975-7747-B259-492F0B1641F3}"/>
+    <hyperlink ref="AJ10" r:id="rId20" xr:uid="{7D770896-3B80-C841-BC3E-58459CBBFA4A}"/>
+    <hyperlink ref="AH11" r:id="rId21" xr:uid="{5D380735-4786-984D-A897-90BDB354A73B}"/>
+    <hyperlink ref="AI11" r:id="rId22" xr:uid="{7B79D3D3-A4CF-4E44-A1C8-C5ABABDC6025}"/>
+    <hyperlink ref="AJ11" r:id="rId23" xr:uid="{871CE208-3EDB-394D-AFB2-8A30C0EAE911}"/>
+    <hyperlink ref="AH12" r:id="rId24" xr:uid="{FB2BBC3A-A7AB-6C42-8731-51E4E2F196ED}"/>
+    <hyperlink ref="AI12" r:id="rId25" xr:uid="{AA96EE92-D983-8146-81E3-F18376B12E29}"/>
+    <hyperlink ref="AH13" r:id="rId26" xr:uid="{6B967A1A-4AB5-B545-90FA-53AA1D8C7ADB}"/>
+    <hyperlink ref="AI14" r:id="rId27" xr:uid="{41E7912C-B59B-B044-8358-B20969A67DC5}"/>
+    <hyperlink ref="AJ14" r:id="rId28" xr:uid="{099DFC7C-3FA2-484F-9FEA-0D963C5BD74C}"/>
+    <hyperlink ref="AI15" r:id="rId29" xr:uid="{AE9CBCCA-9EF2-944F-B47B-2341F3251695}"/>
+    <hyperlink ref="AJ15" r:id="rId30" xr:uid="{C0B6D2B6-00BF-0349-BE25-B1A99B9F1828}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
